--- a/src/test/test-data/Register Data_data_provider.xlsx
+++ b/src/test/test-data/Register Data_data_provider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Selnium-Training\Selenium-Sample\src\test\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE24454-8E55-4DC4-8E17-CA577AEAEE62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E07C22-2DBD-4138-BD15-09AB32B20EEB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{4B0BB57C-6747-4532-9B4C-91D02EE2C44E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="195">
   <si>
     <t>First Name</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>Kibbey</t>
+  </si>
+  <si>
+    <t>Read Status</t>
   </si>
 </sst>
 </file>
@@ -986,29 +989,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43EED39-199B-4AF6-857E-0117093D4741}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="43" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>181</v>
       </c>
@@ -1016,7 +1023,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1032,7 +1039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>190</v>
       </c>
@@ -1040,7 +1047,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
@@ -1048,7 +1055,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -1056,7 +1063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1064,7 +1071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
@@ -1072,7 +1079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -1080,7 +1087,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -1088,7 +1095,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -1096,7 +1103,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>126</v>
       </c>
@@ -1104,7 +1111,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>159</v>
       </c>
@@ -1120,7 +1127,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>144</v>
       </c>
